--- a/DOCS/Ranges.xlsx
+++ b/DOCS/Ranges.xlsx
@@ -1,27 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{63065FBE-4F04-4D63-AB6C-C0D30EAADEB4}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51B57668-2ABD-4594-9964-8E05613B09D9}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ranges" sheetId="1" r:id="rId1"/>
     <sheet name="SPI timings" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="53">
   <si>
     <t>A</t>
   </si>
@@ -627,6 +633,9 @@
       </rPr>
       <t>SCK</t>
     </r>
+  </si>
+  <si>
+    <t>R</t>
   </si>
 </sst>
 </file>
@@ -636,14 +645,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="##0.00E+0"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -745,13 +747,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -760,22 +762,16 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -787,7 +783,7 @@
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -796,10 +792,16 @@
     <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1082,52 +1084,67 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O32"/>
+  <dimension ref="A1:S46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T11" sqref="T11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.73046875" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9.7109375" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.73046875" style="1"/>
-    <col min="2" max="2" width="9.73046875" style="3"/>
-    <col min="3" max="7" width="9.73046875" style="1"/>
+    <col min="1" max="1" width="9.7109375" style="1"/>
+    <col min="2" max="2" width="9.7109375" style="3"/>
+    <col min="3" max="7" width="9.7109375" style="1"/>
     <col min="8" max="8" width="12" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="13" width="9.73046875" style="1"/>
-    <col min="14" max="14" width="9.73046875" style="6"/>
-    <col min="15" max="16384" width="9.73046875" style="1"/>
+    <col min="9" max="13" width="9.7109375" style="1"/>
+    <col min="14" max="14" width="9.7109375" style="6"/>
+    <col min="15" max="17" width="9.7109375" style="1"/>
+    <col min="18" max="18" width="9.7109375" style="6"/>
+    <col min="19" max="16384" width="9.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-    </row>
-    <row r="2" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="8"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-    </row>
-    <row r="3" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="R1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="19"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="R2" s="6">
+        <f>49.4/S2+1</f>
+        <v>50.4</v>
+      </c>
+      <c r="S2" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -1153,42 +1170,56 @@
       <c r="I3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="L3" s="7" t="s">
+      <c r="L3" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="M3" s="7"/>
-      <c r="N3" s="7"/>
-      <c r="O3" s="7"/>
-    </row>
-    <row r="4" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="11" t="s">
+      <c r="M3" s="20"/>
+      <c r="N3" s="20"/>
+      <c r="O3" s="20"/>
+      <c r="R3" s="6">
+        <f t="shared" ref="R3:R46" si="0">49.4/S3+1</f>
+        <v>49.431372549019606</v>
+      </c>
+      <c r="S3" s="1">
+        <v>1.02</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="12">
+      <c r="B4" s="10">
         <v>50</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="G4" s="13" t="s">
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="G4" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H4" s="14">
+      <c r="H4" s="12">
         <v>2</v>
       </c>
-      <c r="I4" s="13" t="s">
+      <c r="I4" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="J4" s="13"/>
-      <c r="K4" s="13"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7"/>
-      <c r="N4" s="7"/>
-      <c r="O4" s="7"/>
-    </row>
-    <row r="5" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="20"/>
+      <c r="M4" s="20"/>
+      <c r="N4" s="20"/>
+      <c r="O4" s="20"/>
+      <c r="R4" s="6">
+        <f t="shared" si="0"/>
+        <v>48.047619047619044</v>
+      </c>
+      <c r="S4" s="1">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -1238,53 +1269,67 @@
       <c r="O5" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="13" t="s">
+      <c r="R5" s="6">
+        <f t="shared" si="0"/>
+        <v>47.168224299065415</v>
+      </c>
+      <c r="S5" s="1">
+        <v>1.07</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="15">
+      <c r="B6" s="13">
         <f>$H$3/B5</f>
         <v>30</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="G6" s="13" t="s">
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="G6" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="H6" s="15">
+      <c r="H6" s="13">
         <f>H5*2^H4</f>
         <v>1.8310546875E-4</v>
       </c>
-      <c r="I6" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="J6" s="15">
+      <c r="I6" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="J6" s="13">
         <f>H6*1000000</f>
         <v>183.10546875</v>
       </c>
-      <c r="K6" s="16" t="s">
+      <c r="K6" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="L6" s="15">
+      <c r="L6" s="13">
         <f>L5*2^H4</f>
         <v>1.1444091796875E-5</v>
       </c>
-      <c r="M6" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="N6" s="15">
+      <c r="M6" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="N6" s="13">
         <f>L6*1000000</f>
         <v>11.444091796875</v>
       </c>
-      <c r="O6" s="16" t="s">
+      <c r="O6" s="14" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="R6" s="6">
+        <f t="shared" si="0"/>
+        <v>45.504504504504496</v>
+      </c>
+      <c r="S6" s="1">
+        <v>1.1100000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>2</v>
       </c>
@@ -1306,7 +1351,7 @@
         <v>4</v>
       </c>
       <c r="J7" s="3">
-        <f t="shared" ref="J7:J8" si="0">H7*1000000</f>
+        <f t="shared" ref="J7:J8" si="1">H7*1000000</f>
         <v>1.9091986314864207</v>
       </c>
       <c r="K7" s="2" t="s">
@@ -1326,58 +1371,72 @@
       <c r="O7" s="1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="11" t="s">
+      <c r="R7" s="6">
+        <f t="shared" si="0"/>
+        <v>44.716814159292035</v>
+      </c>
+      <c r="S7" s="1">
+        <v>1.1299999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="B8" s="12">
+      <c r="B8" s="10">
         <f>B15</f>
         <v>0.05</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="D8" s="12">
+      <c r="D8" s="10">
         <f>B8*1000</f>
         <v>50</v>
       </c>
-      <c r="E8" s="11" t="s">
+      <c r="E8" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G8" s="13" t="s">
+      <c r="G8" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="H8" s="15">
+      <c r="H8" s="13">
         <f>H6/B7</f>
         <v>7.6367945259456825E-6</v>
       </c>
-      <c r="I8" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="J8" s="15">
-        <f t="shared" si="0"/>
+      <c r="I8" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="J8" s="13">
+        <f t="shared" si="1"/>
         <v>7.6367945259456826</v>
       </c>
-      <c r="K8" s="16" t="s">
+      <c r="K8" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="L8" s="15">
+      <c r="L8" s="13">
         <f>L6/B7</f>
         <v>4.7729965787160515E-7</v>
       </c>
-      <c r="M8" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="N8" s="18">
+      <c r="M8" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="N8" s="16">
         <f>L8*1000000000</f>
         <v>477.29965787160518</v>
       </c>
-      <c r="O8" s="13" t="s">
+      <c r="O8" s="11" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="R8" s="6">
+        <f t="shared" si="0"/>
+        <v>43.956521739130437</v>
+      </c>
+      <c r="S8" s="1">
+        <v>1.1499999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>21</v>
       </c>
@@ -1427,75 +1486,110 @@
       <c r="O9" s="4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G10" s="11" t="s">
+      <c r="R9" s="6">
+        <f t="shared" si="0"/>
+        <v>42.864406779661017</v>
+      </c>
+      <c r="S9" s="1">
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G10" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="H10" s="12">
+      <c r="H10" s="10">
         <f>H8/B3</f>
         <v>3.8183972629728413E-3</v>
       </c>
-      <c r="I10" s="11" t="s">
+      <c r="I10" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="J10" s="12">
+      <c r="J10" s="10">
         <f>H10*1000</f>
         <v>3.8183972629728413</v>
       </c>
-      <c r="K10" s="11" t="s">
+      <c r="K10" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="L10" s="12">
+      <c r="L10" s="10">
         <f>L8/B3</f>
         <v>2.3864982893580258E-4</v>
       </c>
-      <c r="M10" s="19" t="s">
+      <c r="M10" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="N10" s="12">
+      <c r="N10" s="10">
         <f>L10*1000000</f>
         <v>238.64982893580259</v>
       </c>
-      <c r="O10" s="11" t="s">
+      <c r="O10" s="9" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="R10" s="6">
+        <f t="shared" si="0"/>
+        <v>41.826446280991739</v>
+      </c>
+      <c r="S10" s="1">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J11" s="3"/>
       <c r="M11" s="5"/>
-    </row>
-    <row r="12" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="8" t="s">
+      <c r="R11" s="6">
+        <f t="shared" si="0"/>
+        <v>40.838709677419352</v>
+      </c>
+      <c r="S11" s="1">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="19"/>
+      <c r="K12" s="19"/>
       <c r="M12" s="5"/>
-    </row>
-    <row r="13" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="8"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
+      <c r="R12" s="6">
+        <f t="shared" si="0"/>
+        <v>39.897637795275585</v>
+      </c>
+      <c r="S12" s="1">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="19"/>
+      <c r="B13" s="19"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="19"/>
+      <c r="K13" s="19"/>
       <c r="M13" s="5"/>
-    </row>
-    <row r="14" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="R13" s="6">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="S13" s="1">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>19</v>
       </c>
@@ -1515,47 +1609,61 @@
       <c r="I14" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="L14" s="7" t="s">
+      <c r="L14" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="M14" s="7"/>
-      <c r="N14" s="7"/>
-      <c r="O14" s="7"/>
-    </row>
-    <row r="15" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="11" t="s">
+      <c r="M14" s="20"/>
+      <c r="N14" s="20"/>
+      <c r="O14" s="20"/>
+      <c r="R14" s="6">
+        <f t="shared" si="0"/>
+        <v>38.142857142857139</v>
+      </c>
+      <c r="S14" s="1">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="B15" s="12">
+      <c r="B15" s="10">
         <v>0.05</v>
       </c>
-      <c r="C15" s="11" t="s">
+      <c r="C15" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="D15" s="12">
+      <c r="D15" s="10">
         <f>B15*1000</f>
         <v>50</v>
       </c>
-      <c r="E15" s="11" t="s">
+      <c r="E15" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G15" s="13" t="s">
+      <c r="G15" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H15" s="14">
+      <c r="H15" s="12">
         <v>2</v>
       </c>
-      <c r="I15" s="13" t="s">
+      <c r="I15" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="J15" s="13"/>
-      <c r="K15" s="13"/>
-      <c r="L15" s="7"/>
-      <c r="M15" s="7"/>
-      <c r="N15" s="7"/>
-      <c r="O15" s="7"/>
-    </row>
-    <row r="16" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="J15" s="11"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="20"/>
+      <c r="M15" s="20"/>
+      <c r="N15" s="20"/>
+      <c r="O15" s="20"/>
+      <c r="R15" s="6">
+        <f t="shared" si="0"/>
+        <v>37.058394160583937</v>
+      </c>
+      <c r="S15" s="1">
+        <v>1.37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>3</v>
       </c>
@@ -1604,53 +1712,67 @@
       <c r="O16" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="17" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="13" t="s">
+      <c r="R16" s="6">
+        <f t="shared" si="0"/>
+        <v>36.285714285714285</v>
+      </c>
+      <c r="S16" s="1">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B17" s="15">
+      <c r="B17" s="13">
         <f>$H$3/B16</f>
         <v>30</v>
       </c>
-      <c r="C17" s="13" t="s">
+      <c r="C17" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="G17" s="13" t="s">
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="G17" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="H17" s="15">
+      <c r="H17" s="13">
         <f>H16*2^H15</f>
         <v>1.8310546875E-4</v>
       </c>
-      <c r="I17" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="J17" s="15">
+      <c r="I17" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="J17" s="13">
         <f>H17*1000000</f>
         <v>183.10546875</v>
       </c>
-      <c r="K17" s="16" t="s">
+      <c r="K17" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="L17" s="15">
+      <c r="L17" s="13">
         <f>L16*2^H15</f>
         <v>1.1444091796875E-5</v>
       </c>
-      <c r="M17" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="N17" s="15">
+      <c r="M17" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="N17" s="13">
         <f>L17*1000000</f>
         <v>11.444091796875</v>
       </c>
-      <c r="O17" s="16" t="s">
+      <c r="O17" s="14" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="18" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="R17" s="6">
+        <f t="shared" si="0"/>
+        <v>35.545454545454547</v>
+      </c>
+      <c r="S17" s="1">
+        <v>1.43</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>2</v>
       </c>
@@ -1672,7 +1794,7 @@
         <v>4</v>
       </c>
       <c r="J18" s="3">
-        <f t="shared" ref="J18:J19" si="1">H18*1000000</f>
+        <f t="shared" ref="J18:J19" si="2">H18*1000000</f>
         <v>1.9091986314864207</v>
       </c>
       <c r="K18" s="2" t="s">
@@ -1692,57 +1814,71 @@
       <c r="O18" s="1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="19" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A19" s="11" t="s">
+      <c r="R18" s="6">
+        <f t="shared" si="0"/>
+        <v>34.605442176870746</v>
+      </c>
+      <c r="S18" s="1">
+        <v>1.47</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="B19" s="12">
+      <c r="B19" s="10">
         <v>5.0000000000000002E-5</v>
       </c>
-      <c r="C19" s="11" t="s">
+      <c r="C19" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="D19" s="12">
+      <c r="D19" s="10">
         <f>B19*1000000</f>
         <v>50</v>
       </c>
-      <c r="E19" s="11" t="s">
+      <c r="E19" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="G19" s="13" t="s">
+      <c r="G19" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="H19" s="15">
+      <c r="H19" s="13">
         <f>H17/B18</f>
         <v>7.6367945259456825E-6</v>
       </c>
-      <c r="I19" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="J19" s="15">
-        <f t="shared" si="1"/>
+      <c r="I19" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="J19" s="13">
+        <f t="shared" si="2"/>
         <v>7.6367945259456826</v>
       </c>
-      <c r="K19" s="16" t="s">
+      <c r="K19" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="L19" s="15">
+      <c r="L19" s="13">
         <f>L17/B18</f>
         <v>4.7729965787160515E-7</v>
       </c>
-      <c r="M19" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="N19" s="18">
+      <c r="M19" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="N19" s="16">
         <f>L19*1000000000</f>
         <v>477.29965787160518</v>
       </c>
-      <c r="O19" s="13" t="s">
+      <c r="O19" s="11" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="20" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="R19" s="6">
+        <f t="shared" si="0"/>
+        <v>33.93333333333333</v>
+      </c>
+      <c r="S19" s="1">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>21</v>
       </c>
@@ -1791,78 +1927,113 @@
       <c r="O20" s="2" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="21" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="R20" s="6">
+        <f t="shared" si="0"/>
+        <v>33.077922077922075</v>
+      </c>
+      <c r="S20" s="1">
+        <v>1.54</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="1"/>
-      <c r="G21" s="11" t="s">
+      <c r="G21" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="H21" s="12">
+      <c r="H21" s="10">
         <f>H19/B14</f>
         <v>3.8183972629728412E-6</v>
       </c>
-      <c r="I21" s="11" t="s">
+      <c r="I21" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="J21" s="12">
+      <c r="J21" s="10">
         <f>H21*1000000</f>
         <v>3.8183972629728413</v>
       </c>
-      <c r="K21" s="11" t="s">
+      <c r="K21" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="L21" s="12">
+      <c r="L21" s="10">
         <f>L19/B14</f>
         <v>2.3864982893580258E-7</v>
       </c>
-      <c r="M21" s="19" t="s">
+      <c r="M21" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="N21" s="12">
+      <c r="N21" s="10">
         <f>L21*1000000000</f>
         <v>238.64982893580259</v>
       </c>
-      <c r="O21" s="20" t="s">
+      <c r="O21" s="18" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="22" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="R21" s="6">
+        <f t="shared" si="0"/>
+        <v>32.265822784810126</v>
+      </c>
+      <c r="S21" s="1">
+        <v>1.58</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="1"/>
       <c r="J22" s="3"/>
       <c r="K22" s="4"/>
       <c r="M22" s="5"/>
-    </row>
-    <row r="23" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A23" s="8" t="s">
+      <c r="R22" s="6">
+        <f t="shared" si="0"/>
+        <v>31.493827160493826</v>
+      </c>
+      <c r="S22" s="1">
+        <v>1.62</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="B23" s="8"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="8"/>
-      <c r="J23" s="8"/>
-      <c r="K23" s="8"/>
+      <c r="B23" s="19"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="19"/>
+      <c r="H23" s="19"/>
+      <c r="I23" s="19"/>
+      <c r="J23" s="19"/>
+      <c r="K23" s="19"/>
       <c r="M23" s="5"/>
-    </row>
-    <row r="24" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A24" s="8"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="8"/>
-      <c r="J24" s="8"/>
-      <c r="K24" s="8"/>
+      <c r="R23" s="6">
+        <f t="shared" si="0"/>
+        <v>30.939393939393941</v>
+      </c>
+      <c r="S23" s="1">
+        <v>1.65</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="19"/>
+      <c r="B24" s="19"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="19"/>
+      <c r="G24" s="19"/>
+      <c r="H24" s="19"/>
+      <c r="I24" s="19"/>
+      <c r="J24" s="19"/>
+      <c r="K24" s="19"/>
       <c r="M24" s="5"/>
-    </row>
-    <row r="25" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="R24" s="6">
+        <f t="shared" si="0"/>
+        <v>30.23076923076923</v>
+      </c>
+      <c r="S24" s="1">
+        <v>1.69</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>22</v>
       </c>
@@ -1889,59 +2060,73 @@
       <c r="I25" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="L25" s="7" t="s">
+      <c r="L25" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="M25" s="7"/>
-      <c r="N25" s="7"/>
-      <c r="O25" s="7"/>
-    </row>
-    <row r="26" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A26" s="13" t="s">
+      <c r="M25" s="20"/>
+      <c r="N25" s="20"/>
+      <c r="O25" s="20"/>
+      <c r="R25" s="6">
+        <f t="shared" si="0"/>
+        <v>29.390804597701148</v>
+      </c>
+      <c r="S25" s="1">
+        <v>1.74</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B26" s="15">
+      <c r="B26" s="13">
         <f>2150</f>
         <v>2150</v>
       </c>
-      <c r="C26" s="16" t="s">
+      <c r="C26" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="D26" s="15">
+      <c r="D26" s="13">
         <f>B26/1000</f>
         <v>2.15</v>
       </c>
-      <c r="E26" s="13" t="s">
+      <c r="E26" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="G26" s="13" t="s">
+      <c r="G26" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H26" s="14">
+      <c r="H26" s="12">
         <v>2</v>
       </c>
-      <c r="I26" s="13" t="s">
+      <c r="I26" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="J26" s="13"/>
-      <c r="K26" s="13"/>
-      <c r="L26" s="7"/>
-      <c r="M26" s="7"/>
-      <c r="N26" s="7"/>
-      <c r="O26" s="7"/>
-    </row>
-    <row r="27" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A27" s="9" t="s">
+      <c r="J26" s="11"/>
+      <c r="K26" s="11"/>
+      <c r="L26" s="20"/>
+      <c r="M26" s="20"/>
+      <c r="N26" s="20"/>
+      <c r="O26" s="20"/>
+      <c r="R26" s="6">
+        <f t="shared" si="0"/>
+        <v>28.752808988764045</v>
+      </c>
+      <c r="S26" s="1">
+        <v>1.78</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="B27" s="10">
+      <c r="B27" s="8">
         <v>500</v>
       </c>
-      <c r="C27" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
+      <c r="C27" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
       <c r="G27" s="1" t="s">
         <v>15</v>
       </c>
@@ -1973,59 +2158,73 @@
       <c r="O27" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="28" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A28" s="13" t="s">
+      <c r="R27" s="6">
+        <f t="shared" si="0"/>
+        <v>28.142857142857142</v>
+      </c>
+      <c r="S27" s="1">
+        <v>1.82</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B28" s="15">
+      <c r="B28" s="13">
         <f>B27*$B$26/($B$25+$B$26)</f>
         <v>0.10747689246811935</v>
       </c>
-      <c r="C28" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="D28" s="15">
+      <c r="C28" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D28" s="13">
         <f>B28*1000</f>
         <v>107.47689246811936</v>
       </c>
-      <c r="E28" s="13" t="s">
+      <c r="E28" s="11" t="s">
         <v>24</v>
       </c>
       <c r="F28" s="3"/>
-      <c r="G28" s="13" t="s">
+      <c r="G28" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="H28" s="15">
+      <c r="H28" s="13">
         <f>H27*2^H26</f>
         <v>1.8310546875E-4</v>
       </c>
-      <c r="I28" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="J28" s="15">
+      <c r="I28" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="J28" s="13">
         <f>H28*1000000</f>
         <v>183.10546875</v>
       </c>
-      <c r="K28" s="16" t="s">
+      <c r="K28" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="L28" s="15">
+      <c r="L28" s="13">
         <f>L27*2^H26</f>
         <v>1.1444091796875E-5</v>
       </c>
-      <c r="M28" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="N28" s="15">
+      <c r="M28" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="N28" s="13">
         <f>L28*1000000</f>
         <v>11.444091796875</v>
       </c>
-      <c r="O28" s="16" t="s">
+      <c r="O28" s="14" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="29" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="R28" s="6">
+        <f t="shared" si="0"/>
+        <v>27.417112299465238</v>
+      </c>
+      <c r="S28" s="1">
+        <v>1.87</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>5</v>
       </c>
@@ -2047,7 +2246,7 @@
         <v>4</v>
       </c>
       <c r="J29" s="3">
-        <f t="shared" ref="J29:J30" si="2">H29*1000000</f>
+        <f t="shared" ref="J29:J30" si="3">H29*1000000</f>
         <v>1.9091986314864207</v>
       </c>
       <c r="K29" s="2" t="s">
@@ -2067,64 +2266,78 @@
       <c r="O29" s="2" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="30" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A30" s="13" t="s">
+      <c r="R29" s="6">
+        <f t="shared" si="0"/>
+        <v>26.863874345549739</v>
+      </c>
+      <c r="S29" s="1">
+        <v>1.91</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B30" s="15">
+      <c r="B30" s="13">
         <f>49.4/2.15+1</f>
         <v>23.976744186046513</v>
       </c>
-      <c r="C30" s="13" t="s">
+      <c r="C30" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="D30" s="13"/>
-      <c r="E30" s="13"/>
-      <c r="G30" s="13" t="s">
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
+      <c r="G30" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="H30" s="15">
+      <c r="H30" s="13">
         <f>H28/B30</f>
         <v>7.6367945259456825E-6</v>
       </c>
-      <c r="I30" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="J30" s="15">
-        <f t="shared" si="2"/>
+      <c r="I30" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="J30" s="13">
+        <f t="shared" si="3"/>
         <v>7.6367945259456826</v>
       </c>
-      <c r="K30" s="16" t="s">
+      <c r="K30" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="L30" s="15">
+      <c r="L30" s="13">
         <f>L28/B30</f>
         <v>4.7729965787160515E-7</v>
       </c>
-      <c r="M30" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="N30" s="15">
+      <c r="M30" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="N30" s="13">
         <f>L30*1000000000</f>
         <v>477.29965787160518</v>
       </c>
-      <c r="O30" s="16" t="s">
+      <c r="O30" s="14" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="31" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A31" s="9" t="s">
+      <c r="R30" s="6">
+        <f t="shared" si="0"/>
+        <v>26.204081632653061</v>
+      </c>
+      <c r="S30" s="1">
+        <v>1.96</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="B31" s="10">
+      <c r="B31" s="8">
         <v>1</v>
       </c>
-      <c r="C31" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D31" s="9"/>
-      <c r="E31" s="9"/>
+      <c r="C31" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
       <c r="G31" s="1" t="s">
         <v>27</v>
       </c>
@@ -2156,66 +2369,206 @@
       <c r="O31" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="32" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A32" s="13" t="s">
+      <c r="R31" s="6">
+        <f t="shared" si="0"/>
+        <v>25.7</v>
+      </c>
+      <c r="S31" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="B32" s="15">
+      <c r="B32" s="13">
         <f>B31*$B$26/($B$25+$B$26)</f>
         <v>2.1495378493623871E-4</v>
       </c>
-      <c r="C32" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="D32" s="15">
+      <c r="C32" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D32" s="13">
         <f>B32*1000000</f>
         <v>214.95378493623872</v>
       </c>
-      <c r="E32" s="16" t="s">
+      <c r="E32" s="14" t="s">
         <v>9</v>
       </c>
       <c r="F32" s="3"/>
-      <c r="G32" s="11" t="s">
+      <c r="G32" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="H32" s="12">
+      <c r="H32" s="10">
         <f>H30*($B$26+$B$25)/$B$26</f>
         <v>3.552761133380819E-2</v>
       </c>
-      <c r="I32" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="J32" s="12">
+      <c r="I32" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="J32" s="10">
         <f>H32*1000</f>
         <v>35.527611333808188</v>
       </c>
-      <c r="K32" s="11" t="s">
+      <c r="K32" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="L32" s="12">
+      <c r="L32" s="10">
         <f>L30*($B$26+$B$25)/$B$26</f>
         <v>2.2204757083630119E-3</v>
       </c>
-      <c r="M32" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="N32" s="12">
+      <c r="M32" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="N32" s="10">
         <f>L32*1000</f>
         <v>2.2204757083630118</v>
       </c>
-      <c r="O32" s="11" t="s">
+      <c r="O32" s="9" t="s">
         <v>24</v>
+      </c>
+      <c r="R32" s="6">
+        <f t="shared" si="0"/>
+        <v>25.097560975609756</v>
+      </c>
+      <c r="S32" s="1">
+        <v>2.0499999999999998</v>
+      </c>
+    </row>
+    <row r="33" spans="18:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R33" s="6">
+        <f t="shared" si="0"/>
+        <v>24.523809523809522</v>
+      </c>
+      <c r="S33" s="1">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="34" spans="18:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R34" s="6">
+        <f t="shared" si="0"/>
+        <v>23.976744186046513</v>
+      </c>
+      <c r="S34" s="1">
+        <v>2.15</v>
+      </c>
+    </row>
+    <row r="35" spans="18:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R35" s="6">
+        <f t="shared" si="0"/>
+        <v>22.858407079646017</v>
+      </c>
+      <c r="S35" s="1">
+        <v>2.2599999999999998</v>
+      </c>
+    </row>
+    <row r="36" spans="18:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R36" s="6">
+        <f t="shared" si="0"/>
+        <v>21.843881856540083</v>
+      </c>
+      <c r="S36" s="1">
+        <v>2.37</v>
+      </c>
+    </row>
+    <row r="37" spans="18:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R37" s="6">
+        <f t="shared" si="0"/>
+        <v>20.839357429718874</v>
+      </c>
+      <c r="S37" s="1">
+        <v>2.4900000000000002</v>
+      </c>
+    </row>
+    <row r="38" spans="18:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R38" s="6">
+        <f t="shared" si="0"/>
+        <v>19.927203065134101</v>
+      </c>
+      <c r="S38" s="1">
+        <v>2.61</v>
+      </c>
+    </row>
+    <row r="39" spans="18:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R39" s="6">
+        <f t="shared" si="0"/>
+        <v>19.029197080291969</v>
+      </c>
+      <c r="S39" s="1">
+        <v>2.74</v>
+      </c>
+    </row>
+    <row r="40" spans="18:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R40" s="6">
+        <f t="shared" si="0"/>
+        <v>18.642857142857142</v>
+      </c>
+      <c r="S40" s="1">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="41" spans="18:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R41" s="6">
+        <f t="shared" si="0"/>
+        <v>18.212543554006967</v>
+      </c>
+      <c r="S41" s="1">
+        <v>2.87</v>
+      </c>
+    </row>
+    <row r="42" spans="18:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R42" s="6">
+        <f t="shared" si="0"/>
+        <v>17.802721088435373</v>
+      </c>
+      <c r="S42" s="1">
+        <v>2.94</v>
+      </c>
+    </row>
+    <row r="43" spans="18:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R43" s="6">
+        <f t="shared" si="0"/>
+        <v>17.411960132890368</v>
+      </c>
+      <c r="S43" s="1">
+        <v>3.01</v>
+      </c>
+    </row>
+    <row r="44" spans="18:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R44" s="6">
+        <f t="shared" si="0"/>
+        <v>16.98705501618123</v>
+      </c>
+      <c r="S44" s="1">
+        <v>3.09</v>
+      </c>
+    </row>
+    <row r="45" spans="18:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R45" s="6">
+        <f t="shared" si="0"/>
+        <v>16.632911392405063</v>
+      </c>
+      <c r="S45" s="1">
+        <v>3.16</v>
+      </c>
+    </row>
+    <row r="46" spans="18:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R46" s="6">
+        <f t="shared" si="0"/>
+        <v>16.246913580246911</v>
+      </c>
+      <c r="S46" s="1">
+        <v>3.24</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="L25:O26"/>
     <mergeCell ref="A1:K2"/>
     <mergeCell ref="A12:K13"/>
     <mergeCell ref="A23:K24"/>
     <mergeCell ref="L3:O4"/>
     <mergeCell ref="L14:O15"/>
-    <mergeCell ref="L25:O26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2225,20 +2578,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63EBB7D5-8A6F-4FB6-B62C-6FEA60EB499C}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.59765625" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9.5703125" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.59765625" style="1"/>
-    <col min="2" max="2" width="9.59765625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="9.59765625" style="1"/>
-    <col min="4" max="4" width="9.59765625" style="3" customWidth="1"/>
-    <col min="5" max="16384" width="9.59765625" style="1"/>
+    <col min="1" max="1" width="9.5703125" style="1"/>
+    <col min="2" max="2" width="9.5703125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="9.5703125" style="1"/>
+    <col min="4" max="4" width="9.5703125" style="3" customWidth="1"/>
+    <col min="5" max="16384" width="9.5703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
@@ -2256,7 +2609,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>46</v>
       </c>
@@ -2275,7 +2628,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>48</v>
       </c>
@@ -2294,7 +2647,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>49</v>
       </c>
@@ -2312,7 +2665,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>50</v>
       </c>
@@ -2331,7 +2684,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>41</v>
       </c>
@@ -2349,7 +2702,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>51</v>
       </c>

--- a/DOCS/Ranges.xlsx
+++ b/DOCS/Ranges.xlsx
@@ -3,13 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51B57668-2ABD-4594-9964-8E05613B09D9}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67542F77-220B-47DD-A7C9-D9539C3CC234}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ranges" sheetId="1" r:id="rId1"/>
-    <sheet name="SPI timings" sheetId="2" r:id="rId2"/>
+    <sheet name="Power" sheetId="3" r:id="rId2"/>
+    <sheet name="SPI timings" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="179021"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="69">
   <si>
     <t>A</t>
   </si>
@@ -636,6 +637,54 @@
   </si>
   <si>
     <t>R</t>
+  </si>
+  <si>
+    <t>Load FET driver 1</t>
+  </si>
+  <si>
+    <t>Load FET driver 2</t>
+  </si>
+  <si>
+    <t>Bypass On</t>
+  </si>
+  <si>
+    <t>Bypass Off</t>
+  </si>
+  <si>
+    <t>Both</t>
+  </si>
+  <si>
+    <t>Total:</t>
+  </si>
+  <si>
+    <t>mW</t>
+  </si>
+  <si>
+    <t>Current ADC 1</t>
+  </si>
+  <si>
+    <t>Current ADC 2</t>
+  </si>
+  <si>
+    <t>Voltage ADC</t>
+  </si>
+  <si>
+    <t>Temp ADC</t>
+  </si>
+  <si>
+    <t>Iso</t>
+  </si>
+  <si>
+    <t>MAX743</t>
+  </si>
+  <si>
+    <t>To 5V</t>
+  </si>
+  <si>
+    <t>To 12V</t>
+  </si>
+  <si>
+    <t>Fan</t>
   </si>
 </sst>
 </file>
@@ -645,7 +694,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="##0.00E+0"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -715,6 +764,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="186"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -742,7 +800,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -798,10 +856,19 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1084,10 +1151,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S46"/>
+  <dimension ref="A1:W46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T11" sqref="T11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="X11" sqref="X11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.7109375" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1103,20 +1170,20 @@
     <col min="19" max="16384" width="9.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
       <c r="R1" s="6" t="s">
         <v>2</v>
       </c>
@@ -1124,18 +1191,18 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="19"/>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
+    <row r="2" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="21"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
       <c r="R2" s="6">
         <f>49.4/S2+1</f>
         <v>50.4</v>
@@ -1144,7 +1211,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -1184,7 +1251,7 @@
         <v>1.02</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>31</v>
       </c>
@@ -1218,8 +1285,15 @@
       <c r="S4" s="1">
         <v>1.05</v>
       </c>
-    </row>
-    <row r="5" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V4" s="1">
+        <v>3.1</v>
+      </c>
+      <c r="W4" s="22">
+        <f>2^16*U5/V4</f>
+        <v>50688.384096024005</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -1276,8 +1350,12 @@
       <c r="S5" s="1">
         <v>1.07</v>
       </c>
-    </row>
-    <row r="6" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U5" s="3">
+        <f>B5*B7</f>
+        <v>2.3976744186046512</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
         <v>5</v>
       </c>
@@ -1329,7 +1407,7 @@
         <v>1.1100000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>2</v>
       </c>
@@ -1379,7 +1457,7 @@
         <v>1.1299999999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>32</v>
       </c>
@@ -1436,7 +1514,7 @@
         <v>1.1499999999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>21</v>
       </c>
@@ -1494,7 +1572,7 @@
         <v>1.18</v>
       </c>
     </row>
-    <row r="10" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G10" s="9" t="s">
         <v>33</v>
       </c>
@@ -1534,7 +1612,7 @@
         <v>1.21</v>
       </c>
     </row>
-    <row r="11" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J11" s="3"/>
       <c r="M11" s="5"/>
       <c r="R11" s="6">
@@ -1545,20 +1623,20 @@
         <v>1.24</v>
       </c>
     </row>
-    <row r="12" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="19" t="s">
+    <row r="12" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="19"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="19"/>
-      <c r="I12" s="19"/>
-      <c r="J12" s="19"/>
-      <c r="K12" s="19"/>
+      <c r="B12" s="21"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="21"/>
+      <c r="K12" s="21"/>
       <c r="M12" s="5"/>
       <c r="R12" s="6">
         <f t="shared" si="0"/>
@@ -1568,18 +1646,18 @@
         <v>1.27</v>
       </c>
     </row>
-    <row r="13" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="19"/>
-      <c r="B13" s="19"/>
-      <c r="C13" s="19"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="19"/>
-      <c r="I13" s="19"/>
-      <c r="J13" s="19"/>
-      <c r="K13" s="19"/>
+    <row r="13" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="21"/>
+      <c r="B13" s="21"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="21"/>
+      <c r="K13" s="21"/>
       <c r="M13" s="5"/>
       <c r="R13" s="6">
         <f t="shared" si="0"/>
@@ -1589,7 +1667,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="14" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>19</v>
       </c>
@@ -1623,7 +1701,7 @@
         <v>1.33</v>
       </c>
     </row>
-    <row r="15" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
         <v>31</v>
       </c>
@@ -1663,7 +1741,7 @@
         <v>1.37</v>
       </c>
     </row>
-    <row r="16" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>3</v>
       </c>
@@ -1990,19 +2068,19 @@
       </c>
     </row>
     <row r="23" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="19" t="s">
+      <c r="A23" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="B23" s="19"/>
-      <c r="C23" s="19"/>
-      <c r="D23" s="19"/>
-      <c r="E23" s="19"/>
-      <c r="F23" s="19"/>
-      <c r="G23" s="19"/>
-      <c r="H23" s="19"/>
-      <c r="I23" s="19"/>
-      <c r="J23" s="19"/>
-      <c r="K23" s="19"/>
+      <c r="B23" s="21"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="21"/>
+      <c r="G23" s="21"/>
+      <c r="H23" s="21"/>
+      <c r="I23" s="21"/>
+      <c r="J23" s="21"/>
+      <c r="K23" s="21"/>
       <c r="M23" s="5"/>
       <c r="R23" s="6">
         <f t="shared" si="0"/>
@@ -2013,17 +2091,17 @@
       </c>
     </row>
     <row r="24" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="19"/>
-      <c r="B24" s="19"/>
-      <c r="C24" s="19"/>
-      <c r="D24" s="19"/>
-      <c r="E24" s="19"/>
-      <c r="F24" s="19"/>
-      <c r="G24" s="19"/>
-      <c r="H24" s="19"/>
-      <c r="I24" s="19"/>
-      <c r="J24" s="19"/>
-      <c r="K24" s="19"/>
+      <c r="A24" s="21"/>
+      <c r="B24" s="21"/>
+      <c r="C24" s="21"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="21"/>
+      <c r="G24" s="21"/>
+      <c r="H24" s="21"/>
+      <c r="I24" s="21"/>
+      <c r="J24" s="21"/>
+      <c r="K24" s="21"/>
       <c r="M24" s="5"/>
       <c r="R24" s="6">
         <f t="shared" si="0"/>
@@ -2575,6 +2653,418 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CD2F9DA-F989-4F05-B358-67BD5736B8A3}">
+  <dimension ref="A1:H19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.7109375" style="19" customWidth="1"/>
+    <col min="2" max="16384" width="10.7109375" style="19"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="19">
+        <v>3</v>
+      </c>
+      <c r="C1" s="19">
+        <v>5</v>
+      </c>
+      <c r="D1" s="19">
+        <v>12</v>
+      </c>
+      <c r="E1" s="19">
+        <v>15</v>
+      </c>
+      <c r="F1" s="19">
+        <v>-15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" s="6">
+        <v>0</v>
+      </c>
+      <c r="C2" s="6">
+        <v>0</v>
+      </c>
+      <c r="D2" s="6">
+        <v>3</v>
+      </c>
+      <c r="E2" s="6">
+        <v>8</v>
+      </c>
+      <c r="F2" s="6">
+        <v>2</v>
+      </c>
+      <c r="G2" s="19" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" s="6">
+        <v>0</v>
+      </c>
+      <c r="C3" s="6">
+        <v>0</v>
+      </c>
+      <c r="D3" s="6">
+        <v>3</v>
+      </c>
+      <c r="E3" s="6">
+        <v>8</v>
+      </c>
+      <c r="F3" s="6">
+        <v>2</v>
+      </c>
+      <c r="G3" s="19" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4" s="6">
+        <v>0</v>
+      </c>
+      <c r="C4" s="6">
+        <v>0</v>
+      </c>
+      <c r="D4" s="6">
+        <v>0.25</v>
+      </c>
+      <c r="E4" s="6">
+        <v>0</v>
+      </c>
+      <c r="F4" s="6">
+        <v>0</v>
+      </c>
+      <c r="G4" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="20" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5" s="6">
+        <v>0</v>
+      </c>
+      <c r="C5" s="6">
+        <v>0</v>
+      </c>
+      <c r="D5" s="6">
+        <v>24</v>
+      </c>
+      <c r="E5" s="6">
+        <v>0</v>
+      </c>
+      <c r="F5" s="6">
+        <v>0</v>
+      </c>
+      <c r="G5" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="20"/>
+    </row>
+    <row r="6" spans="1:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="B6" s="6">
+        <v>1</v>
+      </c>
+      <c r="C6" s="6">
+        <v>0</v>
+      </c>
+      <c r="D6" s="6">
+        <v>0</v>
+      </c>
+      <c r="E6" s="6">
+        <v>0</v>
+      </c>
+      <c r="F6" s="6">
+        <v>0</v>
+      </c>
+      <c r="G6" s="19" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="B7" s="6">
+        <v>1</v>
+      </c>
+      <c r="C7" s="6">
+        <v>0</v>
+      </c>
+      <c r="D7" s="6">
+        <v>0</v>
+      </c>
+      <c r="E7" s="6">
+        <v>0</v>
+      </c>
+      <c r="F7" s="6">
+        <v>0</v>
+      </c>
+      <c r="G7" s="19" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="B8" s="6">
+        <v>1</v>
+      </c>
+      <c r="C8" s="6">
+        <v>0</v>
+      </c>
+      <c r="D8" s="6">
+        <v>0</v>
+      </c>
+      <c r="E8" s="6">
+        <v>0</v>
+      </c>
+      <c r="F8" s="6">
+        <v>0</v>
+      </c>
+      <c r="G8" s="19" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="B9" s="6">
+        <v>1</v>
+      </c>
+      <c r="C9" s="6">
+        <v>0</v>
+      </c>
+      <c r="D9" s="6">
+        <v>0</v>
+      </c>
+      <c r="E9" s="6">
+        <v>0</v>
+      </c>
+      <c r="F9" s="6">
+        <v>0</v>
+      </c>
+      <c r="G9" s="19" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="B10" s="6">
+        <f>8.57*3</f>
+        <v>25.71</v>
+      </c>
+      <c r="C10" s="6">
+        <f>14.3*11+21*4</f>
+        <v>241.3</v>
+      </c>
+      <c r="D10" s="6">
+        <v>0</v>
+      </c>
+      <c r="E10" s="6">
+        <v>0</v>
+      </c>
+      <c r="F10" s="6">
+        <v>0</v>
+      </c>
+      <c r="G10" s="19" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="B11" s="6">
+        <v>0</v>
+      </c>
+      <c r="C11" s="6">
+        <v>30</v>
+      </c>
+      <c r="D11" s="6">
+        <v>0</v>
+      </c>
+      <c r="E11" s="6">
+        <v>0</v>
+      </c>
+      <c r="F11" s="6">
+        <v>0</v>
+      </c>
+      <c r="G11" s="19" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+    </row>
+    <row r="13" spans="1:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+    </row>
+    <row r="14" spans="1:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="B14" s="6">
+        <f>SUM(B2:B13)</f>
+        <v>29.71</v>
+      </c>
+      <c r="C14" s="6">
+        <f>SUM(C2:C13)</f>
+        <v>271.3</v>
+      </c>
+      <c r="D14" s="6">
+        <f t="shared" ref="D14:F14" si="0">SUM(D2:D13)</f>
+        <v>30.25</v>
+      </c>
+      <c r="E14" s="6">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="F14" s="6">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="G14" s="19" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="23"/>
+      <c r="B15" s="6">
+        <f>ABS(B14*B1)</f>
+        <v>89.13</v>
+      </c>
+      <c r="C15" s="6">
+        <f t="shared" ref="C15:F15" si="1">ABS(C14*C1)</f>
+        <v>1356.5</v>
+      </c>
+      <c r="D15" s="6">
+        <f t="shared" si="1"/>
+        <v>363</v>
+      </c>
+      <c r="E15" s="6">
+        <f t="shared" si="1"/>
+        <v>240</v>
+      </c>
+      <c r="F15" s="6">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
+      <c r="G15" s="19" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="B16" s="6">
+        <f>B14</f>
+        <v>29.71</v>
+      </c>
+      <c r="C16" s="6">
+        <f>SUM(B16,E16,F16,C14)</f>
+        <v>385.01</v>
+      </c>
+      <c r="E16" s="19">
+        <f>E15/0.75/5</f>
+        <v>64</v>
+      </c>
+      <c r="F16" s="19">
+        <f>F15/0.6/5</f>
+        <v>20</v>
+      </c>
+      <c r="G16" s="19" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="20"/>
+      <c r="B17" s="19">
+        <f>$C$1*B16</f>
+        <v>148.55000000000001</v>
+      </c>
+      <c r="C17" s="6">
+        <f>SUM(B17,C15,E17,F17)</f>
+        <v>1925.05</v>
+      </c>
+      <c r="E17" s="19">
+        <f t="shared" ref="C17:F17" si="2">$C$1*E16</f>
+        <v>320</v>
+      </c>
+      <c r="F17" s="19">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="G17" s="19" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="C18" s="6">
+        <f>C16</f>
+        <v>385.01</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="20"/>
+      <c r="C19" s="19">
+        <f>C18*D1</f>
+        <v>4620.12</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A18:A19"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63EBB7D5-8A6F-4FB6-B62C-6FEA60EB499C}">
   <dimension ref="A1:E8"/>
   <sheetViews>

--- a/DOCS/Ranges.xlsx
+++ b/DOCS/Ranges.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67542F77-220B-47DD-A7C9-D9539C3CC234}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D33EF5E-BD2D-4551-B1B2-BFB3E03E4AB4}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ranges" sheetId="1" r:id="rId1"/>
@@ -859,13 +859,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1153,8 +1153,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="X11" sqref="X11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.7109375" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1171,19 +1171,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
       <c r="R1" s="6" t="s">
         <v>2</v>
       </c>
@@ -1192,17 +1192,17 @@
       </c>
     </row>
     <row r="2" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="21"/>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="21"/>
+      <c r="A2" s="22"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
       <c r="R2" s="6">
         <f>49.4/S2+1</f>
         <v>50.4</v>
@@ -1216,14 +1216,15 @@
         <v>11</v>
       </c>
       <c r="B3" s="3">
-        <v>2E-3</v>
+        <f>0.01/3</f>
+        <v>3.3333333333333335E-3</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D3" s="3">
         <f>B3*1000</f>
-        <v>2</v>
+        <v>3.3333333333333335</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>10</v>
@@ -1237,12 +1238,12 @@
       <c r="I3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="L3" s="20" t="s">
+      <c r="L3" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="M3" s="20"/>
-      <c r="N3" s="20"/>
-      <c r="O3" s="20"/>
+      <c r="M3" s="21"/>
+      <c r="N3" s="21"/>
+      <c r="O3" s="21"/>
       <c r="R3" s="6">
         <f t="shared" ref="R3:R46" si="0">49.4/S3+1</f>
         <v>49.431372549019606</v>
@@ -1256,7 +1257,8 @@
         <v>31</v>
       </c>
       <c r="B4" s="10">
-        <v>50</v>
+        <f>0.1/B3</f>
+        <v>30</v>
       </c>
       <c r="C4" s="9" t="s">
         <v>0</v>
@@ -1274,10 +1276,10 @@
       </c>
       <c r="J4" s="11"/>
       <c r="K4" s="11"/>
-      <c r="L4" s="20"/>
-      <c r="M4" s="20"/>
-      <c r="N4" s="20"/>
-      <c r="O4" s="20"/>
+      <c r="L4" s="21"/>
+      <c r="M4" s="21"/>
+      <c r="N4" s="21"/>
+      <c r="O4" s="21"/>
       <c r="R4" s="6">
         <f t="shared" si="0"/>
         <v>48.047619047619044</v>
@@ -1288,7 +1290,7 @@
       <c r="V4" s="1">
         <v>3.1</v>
       </c>
-      <c r="W4" s="22">
+      <c r="W4" s="20">
         <f>2^16*U5/V4</f>
         <v>50688.384096024005</v>
       </c>
@@ -1462,15 +1464,15 @@
         <v>32</v>
       </c>
       <c r="B8" s="10">
-        <f>B15</f>
-        <v>0.05</v>
+        <f>0.1/B14</f>
+        <v>3.0303030303030307E-2</v>
       </c>
       <c r="C8" s="9" t="s">
         <v>0</v>
       </c>
       <c r="D8" s="10">
         <f>B8*1000</f>
-        <v>50</v>
+        <v>30.303030303030308</v>
       </c>
       <c r="E8" s="9" t="s">
         <v>13</v>
@@ -1520,14 +1522,14 @@
       </c>
       <c r="B9" s="3">
         <f>B8*B3</f>
-        <v>1E-4</v>
+        <v>1.0101010101010104E-4</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
         <f>B9*1000000</f>
-        <v>100</v>
+        <v>101.01010101010104</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>9</v>
@@ -1538,28 +1540,28 @@
       </c>
       <c r="H9" s="3">
         <f>H7/B3</f>
-        <v>9.5459931574321032E-4</v>
+        <v>5.7275958944592615E-4</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>0</v>
       </c>
       <c r="J9" s="3">
         <f>H9*1000</f>
-        <v>0.95459931574321033</v>
+        <v>0.5727595894459262</v>
       </c>
       <c r="K9" s="1" t="s">
         <v>13</v>
       </c>
       <c r="L9" s="3">
         <f>L7/B3</f>
-        <v>5.9662457233950645E-5</v>
+        <v>3.5797474340370384E-5</v>
       </c>
       <c r="M9" s="6" t="s">
         <v>0</v>
       </c>
       <c r="N9" s="3">
         <f>L9*1000000</f>
-        <v>59.662457233950647</v>
+        <v>35.797474340370385</v>
       </c>
       <c r="O9" s="4" t="s">
         <v>20</v>
@@ -1578,28 +1580,28 @@
       </c>
       <c r="H10" s="10">
         <f>H8/B3</f>
-        <v>3.8183972629728413E-3</v>
+        <v>2.2910383577837046E-3</v>
       </c>
       <c r="I10" s="9" t="s">
         <v>0</v>
       </c>
       <c r="J10" s="10">
         <f>H10*1000</f>
-        <v>3.8183972629728413</v>
+        <v>2.2910383577837048</v>
       </c>
       <c r="K10" s="9" t="s">
         <v>13</v>
       </c>
       <c r="L10" s="10">
         <f>L8/B3</f>
-        <v>2.3864982893580258E-4</v>
+        <v>1.4318989736148154E-4</v>
       </c>
       <c r="M10" s="17" t="s">
         <v>0</v>
       </c>
       <c r="N10" s="10">
         <f>L10*1000000</f>
-        <v>238.64982893580259</v>
+        <v>143.18989736148154</v>
       </c>
       <c r="O10" s="9" t="s">
         <v>34</v>
@@ -1624,19 +1626,19 @@
       </c>
     </row>
     <row r="12" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="21" t="s">
+      <c r="A12" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="21"/>
-      <c r="C12" s="21"/>
-      <c r="D12" s="21"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="21"/>
-      <c r="I12" s="21"/>
-      <c r="J12" s="21"/>
-      <c r="K12" s="21"/>
+      <c r="B12" s="22"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="22"/>
+      <c r="J12" s="22"/>
+      <c r="K12" s="22"/>
       <c r="M12" s="5"/>
       <c r="R12" s="6">
         <f t="shared" si="0"/>
@@ -1647,17 +1649,17 @@
       </c>
     </row>
     <row r="13" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="21"/>
-      <c r="B13" s="21"/>
-      <c r="C13" s="21"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="21"/>
-      <c r="H13" s="21"/>
-      <c r="I13" s="21"/>
-      <c r="J13" s="21"/>
-      <c r="K13" s="21"/>
+      <c r="A13" s="22"/>
+      <c r="B13" s="22"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="22"/>
+      <c r="J13" s="22"/>
+      <c r="K13" s="22"/>
       <c r="M13" s="5"/>
       <c r="R13" s="6">
         <f t="shared" si="0"/>
@@ -1672,7 +1674,7 @@
         <v>19</v>
       </c>
       <c r="B14" s="3">
-        <v>2</v>
+        <v>3.3</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>1</v>
@@ -1687,12 +1689,12 @@
       <c r="I14" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="L14" s="20" t="s">
+      <c r="L14" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="M14" s="20"/>
-      <c r="N14" s="20"/>
-      <c r="O14" s="20"/>
+      <c r="M14" s="21"/>
+      <c r="N14" s="21"/>
+      <c r="O14" s="21"/>
       <c r="R14" s="6">
         <f t="shared" si="0"/>
         <v>38.142857142857139</v>
@@ -1706,14 +1708,15 @@
         <v>31</v>
       </c>
       <c r="B15" s="10">
-        <v>0.05</v>
+        <f>0.1/B14</f>
+        <v>3.0303030303030307E-2</v>
       </c>
       <c r="C15" s="9" t="s">
         <v>0</v>
       </c>
       <c r="D15" s="10">
         <f>B15*1000</f>
-        <v>50</v>
+        <v>30.303030303030308</v>
       </c>
       <c r="E15" s="9" t="s">
         <v>13</v>
@@ -1729,10 +1732,10 @@
       </c>
       <c r="J15" s="11"/>
       <c r="K15" s="11"/>
-      <c r="L15" s="20"/>
-      <c r="M15" s="20"/>
-      <c r="N15" s="20"/>
-      <c r="O15" s="20"/>
+      <c r="L15" s="21"/>
+      <c r="M15" s="21"/>
+      <c r="N15" s="21"/>
+      <c r="O15" s="21"/>
       <c r="R15" s="6">
         <f t="shared" si="0"/>
         <v>37.058394160583937</v>
@@ -1962,14 +1965,14 @@
       </c>
       <c r="B20" s="3">
         <f>B19*B14</f>
-        <v>1E-4</v>
+        <v>1.65E-4</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D20" s="3">
         <f>B20*1000000</f>
-        <v>100</v>
+        <v>165</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>9</v>
@@ -1979,28 +1982,28 @@
       </c>
       <c r="H20" s="3">
         <f>H18/B14</f>
-        <v>9.5459931574321031E-7</v>
+        <v>5.7854503984436993E-7</v>
       </c>
       <c r="I20" s="1" t="s">
         <v>0</v>
       </c>
       <c r="J20" s="3">
         <f>H20*1000000</f>
-        <v>0.95459931574321033</v>
+        <v>0.57854503984436989</v>
       </c>
       <c r="K20" s="4" t="s">
         <v>20</v>
       </c>
       <c r="L20" s="3">
         <f>L18/B14</f>
-        <v>5.9662457233950644E-8</v>
+        <v>3.6159064990273121E-8</v>
       </c>
       <c r="M20" s="6" t="s">
         <v>0</v>
       </c>
       <c r="N20" s="3">
         <f>L20*1000000000</f>
-        <v>59.662457233950647</v>
+        <v>36.159064990273123</v>
       </c>
       <c r="O20" s="2" t="s">
         <v>39</v>
@@ -2020,28 +2023,28 @@
       </c>
       <c r="H21" s="10">
         <f>H19/B14</f>
-        <v>3.8183972629728412E-6</v>
+        <v>2.3141801593774797E-6</v>
       </c>
       <c r="I21" s="9" t="s">
         <v>0</v>
       </c>
       <c r="J21" s="10">
         <f>H21*1000000</f>
-        <v>3.8183972629728413</v>
+        <v>2.3141801593774796</v>
       </c>
       <c r="K21" s="9" t="s">
         <v>34</v>
       </c>
       <c r="L21" s="10">
         <f>L19/B14</f>
-        <v>2.3864982893580258E-7</v>
+        <v>1.4463625996109248E-7</v>
       </c>
       <c r="M21" s="17" t="s">
         <v>0</v>
       </c>
       <c r="N21" s="10">
         <f>L21*1000000000</f>
-        <v>238.64982893580259</v>
+        <v>144.63625996109249</v>
       </c>
       <c r="O21" s="18" t="s">
         <v>39</v>
@@ -2068,19 +2071,19 @@
       </c>
     </row>
     <row r="23" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="21" t="s">
+      <c r="A23" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="B23" s="21"/>
-      <c r="C23" s="21"/>
-      <c r="D23" s="21"/>
-      <c r="E23" s="21"/>
-      <c r="F23" s="21"/>
-      <c r="G23" s="21"/>
-      <c r="H23" s="21"/>
-      <c r="I23" s="21"/>
-      <c r="J23" s="21"/>
-      <c r="K23" s="21"/>
+      <c r="B23" s="22"/>
+      <c r="C23" s="22"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="22"/>
+      <c r="F23" s="22"/>
+      <c r="G23" s="22"/>
+      <c r="H23" s="22"/>
+      <c r="I23" s="22"/>
+      <c r="J23" s="22"/>
+      <c r="K23" s="22"/>
       <c r="M23" s="5"/>
       <c r="R23" s="6">
         <f t="shared" si="0"/>
@@ -2091,17 +2094,17 @@
       </c>
     </row>
     <row r="24" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="21"/>
-      <c r="B24" s="21"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="21"/>
-      <c r="G24" s="21"/>
-      <c r="H24" s="21"/>
-      <c r="I24" s="21"/>
-      <c r="J24" s="21"/>
-      <c r="K24" s="21"/>
+      <c r="A24" s="22"/>
+      <c r="B24" s="22"/>
+      <c r="C24" s="22"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="22"/>
+      <c r="G24" s="22"/>
+      <c r="H24" s="22"/>
+      <c r="I24" s="22"/>
+      <c r="J24" s="22"/>
+      <c r="K24" s="22"/>
       <c r="M24" s="5"/>
       <c r="R24" s="6">
         <f t="shared" si="0"/>
@@ -2138,12 +2141,12 @@
       <c r="I25" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="L25" s="20" t="s">
+      <c r="L25" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="M25" s="20"/>
-      <c r="N25" s="20"/>
-      <c r="O25" s="20"/>
+      <c r="M25" s="21"/>
+      <c r="N25" s="21"/>
+      <c r="O25" s="21"/>
       <c r="R25" s="6">
         <f t="shared" si="0"/>
         <v>29.390804597701148</v>
@@ -2181,10 +2184,10 @@
       </c>
       <c r="J26" s="11"/>
       <c r="K26" s="11"/>
-      <c r="L26" s="20"/>
-      <c r="M26" s="20"/>
-      <c r="N26" s="20"/>
-      <c r="O26" s="20"/>
+      <c r="L26" s="21"/>
+      <c r="M26" s="21"/>
+      <c r="N26" s="21"/>
+      <c r="O26" s="21"/>
       <c r="R26" s="6">
         <f t="shared" si="0"/>
         <v>28.752808988764045</v>
@@ -2656,7 +2659,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CD2F9DA-F989-4F05-B358-67BD5736B8A3}">
   <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
@@ -2751,7 +2754,7 @@
       <c r="G4" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="20" t="s">
+      <c r="H4" s="21" t="s">
         <v>57</v>
       </c>
     </row>
@@ -2777,7 +2780,7 @@
       <c r="G5" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="H5" s="20"/>
+      <c r="H5" s="21"/>
     </row>
     <row r="6" spans="1:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="19" t="s">
@@ -2991,7 +2994,7 @@
       </c>
     </row>
     <row r="16" spans="1:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="20" t="s">
+      <c r="A16" s="21" t="s">
         <v>66</v>
       </c>
       <c r="B16" s="6">
@@ -3015,7 +3018,7 @@
       </c>
     </row>
     <row r="17" spans="1:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="20"/>
+      <c r="A17" s="21"/>
       <c r="B17" s="19">
         <f>$C$1*B16</f>
         <v>148.55000000000001</v>
@@ -3025,7 +3028,7 @@
         <v>1925.05</v>
       </c>
       <c r="E17" s="19">
-        <f t="shared" ref="C17:F17" si="2">$C$1*E16</f>
+        <f t="shared" ref="E17:F17" si="2">$C$1*E16</f>
         <v>320</v>
       </c>
       <c r="F17" s="19">
@@ -3037,7 +3040,7 @@
       </c>
     </row>
     <row r="18" spans="1:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="20" t="s">
+      <c r="A18" s="21" t="s">
         <v>67</v>
       </c>
       <c r="C18" s="6">
@@ -3046,7 +3049,7 @@
       </c>
     </row>
     <row r="19" spans="1:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="20"/>
+      <c r="A19" s="21"/>
       <c r="C19" s="19">
         <f>C18*D1</f>
         <v>4620.12</v>

--- a/DOCS/Ranges.xlsx
+++ b/DOCS/Ranges.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D33EF5E-BD2D-4551-B1B2-BFB3E03E4AB4}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{71975EA2-6126-42D9-8817-1D020A963479}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -12,16 +12,10 @@
     <sheet name="Power" sheetId="3" r:id="rId2"/>
     <sheet name="SPI timings" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -1154,23 +1148,23 @@
   <dimension ref="A1:W46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.7109375" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.73046875" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="9.7109375" style="1"/>
-    <col min="2" max="2" width="9.7109375" style="3"/>
-    <col min="3" max="7" width="9.7109375" style="1"/>
+    <col min="1" max="1" width="9.73046875" style="1"/>
+    <col min="2" max="2" width="9.73046875" style="3"/>
+    <col min="3" max="7" width="9.73046875" style="1"/>
     <col min="8" max="8" width="12" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="13" width="9.7109375" style="1"/>
-    <col min="14" max="14" width="9.7109375" style="6"/>
-    <col min="15" max="17" width="9.7109375" style="1"/>
-    <col min="18" max="18" width="9.7109375" style="6"/>
-    <col min="19" max="16384" width="9.7109375" style="1"/>
+    <col min="9" max="13" width="9.73046875" style="1"/>
+    <col min="14" max="14" width="9.73046875" style="6"/>
+    <col min="15" max="17" width="9.73046875" style="1"/>
+    <col min="18" max="18" width="9.73046875" style="6"/>
+    <col min="19" max="16384" width="9.73046875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="22" t="s">
         <v>28</v>
       </c>
@@ -1191,7 +1185,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="22"/>
       <c r="B2" s="22"/>
       <c r="C2" s="22"/>
@@ -1211,7 +1205,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -1252,7 +1246,7 @@
         <v>1.02</v>
       </c>
     </row>
-    <row r="4" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="9" t="s">
         <v>31</v>
       </c>
@@ -1295,7 +1289,7 @@
         <v>50688.384096024005</v>
       </c>
     </row>
-    <row r="5" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -1357,7 +1351,7 @@
         <v>2.3976744186046512</v>
       </c>
     </row>
-    <row r="6" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="11" t="s">
         <v>5</v>
       </c>
@@ -1409,7 +1403,7 @@
         <v>1.1100000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
         <v>2</v>
       </c>
@@ -1459,20 +1453,20 @@
         <v>1.1299999999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" s="9" t="s">
         <v>32</v>
       </c>
       <c r="B8" s="10">
         <f>0.1/B14</f>
-        <v>3.0303030303030307E-2</v>
+        <v>0.05</v>
       </c>
       <c r="C8" s="9" t="s">
         <v>0</v>
       </c>
       <c r="D8" s="10">
         <f>B8*1000</f>
-        <v>30.303030303030308</v>
+        <v>50</v>
       </c>
       <c r="E8" s="9" t="s">
         <v>13</v>
@@ -1516,20 +1510,20 @@
         <v>1.1499999999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B9" s="3">
         <f>B8*B3</f>
-        <v>1.0101010101010104E-4</v>
+        <v>1.6666666666666669E-4</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
         <f>B9*1000000</f>
-        <v>101.01010101010104</v>
+        <v>166.66666666666669</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>9</v>
@@ -1574,7 +1568,7 @@
         <v>1.18</v>
       </c>
     </row>
-    <row r="10" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="G10" s="9" t="s">
         <v>33</v>
       </c>
@@ -1614,7 +1608,7 @@
         <v>1.21</v>
       </c>
     </row>
-    <row r="11" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="J11" s="3"/>
       <c r="M11" s="5"/>
       <c r="R11" s="6">
@@ -1625,7 +1619,7 @@
         <v>1.24</v>
       </c>
     </row>
-    <row r="12" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" s="22" t="s">
         <v>29</v>
       </c>
@@ -1648,7 +1642,7 @@
         <v>1.27</v>
       </c>
     </row>
-    <row r="13" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A13" s="22"/>
       <c r="B13" s="22"/>
       <c r="C13" s="22"/>
@@ -1669,12 +1663,12 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="14" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B14" s="3">
-        <v>3.3</v>
+        <v>2</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>1</v>
@@ -1703,20 +1697,20 @@
         <v>1.33</v>
       </c>
     </row>
-    <row r="15" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="9" t="s">
         <v>31</v>
       </c>
       <c r="B15" s="10">
         <f>0.1/B14</f>
-        <v>3.0303030303030307E-2</v>
+        <v>0.05</v>
       </c>
       <c r="C15" s="9" t="s">
         <v>0</v>
       </c>
       <c r="D15" s="10">
         <f>B15*1000</f>
-        <v>30.303030303030308</v>
+        <v>50</v>
       </c>
       <c r="E15" s="9" t="s">
         <v>13</v>
@@ -1744,7 +1738,7 @@
         <v>1.37</v>
       </c>
     </row>
-    <row r="16" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
         <v>3</v>
       </c>
@@ -1801,7 +1795,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="17" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" s="11" t="s">
         <v>5</v>
       </c>
@@ -1853,7 +1847,7 @@
         <v>1.43</v>
       </c>
     </row>
-    <row r="18" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
         <v>2</v>
       </c>
@@ -1903,7 +1897,7 @@
         <v>1.47</v>
       </c>
     </row>
-    <row r="19" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19" s="9" t="s">
         <v>32</v>
       </c>
@@ -1959,20 +1953,20 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="20" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B20" s="3">
         <f>B19*B14</f>
-        <v>1.65E-4</v>
+        <v>1E-4</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D20" s="3">
         <f>B20*1000000</f>
-        <v>165</v>
+        <v>100</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>9</v>
@@ -1982,28 +1976,28 @@
       </c>
       <c r="H20" s="3">
         <f>H18/B14</f>
-        <v>5.7854503984436993E-7</v>
+        <v>9.5459931574321031E-7</v>
       </c>
       <c r="I20" s="1" t="s">
         <v>0</v>
       </c>
       <c r="J20" s="3">
         <f>H20*1000000</f>
-        <v>0.57854503984436989</v>
+        <v>0.95459931574321033</v>
       </c>
       <c r="K20" s="4" t="s">
         <v>20</v>
       </c>
       <c r="L20" s="3">
         <f>L18/B14</f>
-        <v>3.6159064990273121E-8</v>
+        <v>5.9662457233950644E-8</v>
       </c>
       <c r="M20" s="6" t="s">
         <v>0</v>
       </c>
       <c r="N20" s="3">
         <f>L20*1000000000</f>
-        <v>36.159064990273123</v>
+        <v>59.662457233950647</v>
       </c>
       <c r="O20" s="2" t="s">
         <v>39</v>
@@ -2016,35 +2010,35 @@
         <v>1.54</v>
       </c>
     </row>
-    <row r="21" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B21" s="1"/>
       <c r="G21" s="9" t="s">
         <v>33</v>
       </c>
       <c r="H21" s="10">
         <f>H19/B14</f>
-        <v>2.3141801593774797E-6</v>
+        <v>3.8183972629728412E-6</v>
       </c>
       <c r="I21" s="9" t="s">
         <v>0</v>
       </c>
       <c r="J21" s="10">
         <f>H21*1000000</f>
-        <v>2.3141801593774796</v>
+        <v>3.8183972629728413</v>
       </c>
       <c r="K21" s="9" t="s">
         <v>34</v>
       </c>
       <c r="L21" s="10">
         <f>L19/B14</f>
-        <v>1.4463625996109248E-7</v>
+        <v>2.3864982893580258E-7</v>
       </c>
       <c r="M21" s="17" t="s">
         <v>0</v>
       </c>
       <c r="N21" s="10">
         <f>L21*1000000000</f>
-        <v>144.63625996109249</v>
+        <v>238.64982893580259</v>
       </c>
       <c r="O21" s="18" t="s">
         <v>39</v>
@@ -2057,7 +2051,7 @@
         <v>1.58</v>
       </c>
     </row>
-    <row r="22" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B22" s="1"/>
       <c r="J22" s="3"/>
       <c r="K22" s="4"/>
@@ -2070,7 +2064,7 @@
         <v>1.62</v>
       </c>
     </row>
-    <row r="23" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A23" s="22" t="s">
         <v>30</v>
       </c>
@@ -2093,7 +2087,7 @@
         <v>1.65</v>
       </c>
     </row>
-    <row r="24" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24" s="22"/>
       <c r="B24" s="22"/>
       <c r="C24" s="22"/>
@@ -2114,7 +2108,7 @@
         <v>1.69</v>
       </c>
     </row>
-    <row r="25" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A25" s="1" t="s">
         <v>22</v>
       </c>
@@ -2155,7 +2149,7 @@
         <v>1.74</v>
       </c>
     </row>
-    <row r="26" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A26" s="11" t="s">
         <v>23</v>
       </c>
@@ -2196,7 +2190,7 @@
         <v>1.78</v>
       </c>
     </row>
-    <row r="27" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A27" s="7" t="s">
         <v>35</v>
       </c>
@@ -2247,7 +2241,7 @@
         <v>1.82</v>
       </c>
     </row>
-    <row r="28" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A28" s="11" t="s">
         <v>3</v>
       </c>
@@ -2305,7 +2299,7 @@
         <v>1.87</v>
       </c>
     </row>
-    <row r="29" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A29" s="1" t="s">
         <v>5</v>
       </c>
@@ -2355,7 +2349,7 @@
         <v>1.91</v>
       </c>
     </row>
-    <row r="30" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A30" s="11" t="s">
         <v>2</v>
       </c>
@@ -2407,7 +2401,7 @@
         <v>1.96</v>
       </c>
     </row>
-    <row r="31" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A31" s="7" t="s">
         <v>36</v>
       </c>
@@ -2458,7 +2452,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A32" s="11" t="s">
         <v>21</v>
       </c>
@@ -2516,7 +2510,7 @@
         <v>2.0499999999999998</v>
       </c>
     </row>
-    <row r="33" spans="18:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="18:19" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="R33" s="6">
         <f t="shared" si="0"/>
         <v>24.523809523809522</v>
@@ -2525,7 +2519,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="34" spans="18:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="18:19" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="R34" s="6">
         <f t="shared" si="0"/>
         <v>23.976744186046513</v>
@@ -2534,7 +2528,7 @@
         <v>2.15</v>
       </c>
     </row>
-    <row r="35" spans="18:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="18:19" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="R35" s="6">
         <f t="shared" si="0"/>
         <v>22.858407079646017</v>
@@ -2543,7 +2537,7 @@
         <v>2.2599999999999998</v>
       </c>
     </row>
-    <row r="36" spans="18:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="18:19" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="R36" s="6">
         <f t="shared" si="0"/>
         <v>21.843881856540083</v>
@@ -2552,7 +2546,7 @@
         <v>2.37</v>
       </c>
     </row>
-    <row r="37" spans="18:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="18:19" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="R37" s="6">
         <f t="shared" si="0"/>
         <v>20.839357429718874</v>
@@ -2561,7 +2555,7 @@
         <v>2.4900000000000002</v>
       </c>
     </row>
-    <row r="38" spans="18:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="18:19" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="R38" s="6">
         <f t="shared" si="0"/>
         <v>19.927203065134101</v>
@@ -2570,7 +2564,7 @@
         <v>2.61</v>
       </c>
     </row>
-    <row r="39" spans="18:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="18:19" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="R39" s="6">
         <f t="shared" si="0"/>
         <v>19.029197080291969</v>
@@ -2579,7 +2573,7 @@
         <v>2.74</v>
       </c>
     </row>
-    <row r="40" spans="18:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="18:19" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="R40" s="6">
         <f t="shared" si="0"/>
         <v>18.642857142857142</v>
@@ -2588,7 +2582,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="41" spans="18:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="18:19" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="R41" s="6">
         <f t="shared" si="0"/>
         <v>18.212543554006967</v>
@@ -2597,7 +2591,7 @@
         <v>2.87</v>
       </c>
     </row>
-    <row r="42" spans="18:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="18:19" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="R42" s="6">
         <f t="shared" si="0"/>
         <v>17.802721088435373</v>
@@ -2606,7 +2600,7 @@
         <v>2.94</v>
       </c>
     </row>
-    <row r="43" spans="18:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="18:19" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="R43" s="6">
         <f t="shared" si="0"/>
         <v>17.411960132890368</v>
@@ -2615,7 +2609,7 @@
         <v>3.01</v>
       </c>
     </row>
-    <row r="44" spans="18:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="18:19" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="R44" s="6">
         <f t="shared" si="0"/>
         <v>16.98705501618123</v>
@@ -2624,7 +2618,7 @@
         <v>3.09</v>
       </c>
     </row>
-    <row r="45" spans="18:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="18:19" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="R45" s="6">
         <f t="shared" si="0"/>
         <v>16.632911392405063</v>
@@ -2633,7 +2627,7 @@
         <v>3.16</v>
       </c>
     </row>
-    <row r="46" spans="18:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="18:19" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="R46" s="6">
         <f t="shared" si="0"/>
         <v>16.246913580246911</v>
@@ -2663,13 +2657,13 @@
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.73046875" defaultRowHeight="18.600000000000001" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="18.7109375" style="19" customWidth="1"/>
-    <col min="2" max="16384" width="10.7109375" style="19"/>
+    <col min="1" max="1" width="18.73046875" style="19" customWidth="1"/>
+    <col min="2" max="16384" width="10.73046875" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B1" s="19">
         <v>3</v>
       </c>
@@ -2686,7 +2680,7 @@
         <v>-15</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="19" t="s">
         <v>53</v>
       </c>
@@ -2709,7 +2703,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="19" t="s">
         <v>54</v>
       </c>
@@ -2732,7 +2726,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="19" t="s">
         <v>55</v>
       </c>
@@ -2758,7 +2752,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="19" t="s">
         <v>56</v>
       </c>
@@ -2782,7 +2776,7 @@
       </c>
       <c r="H5" s="21"/>
     </row>
-    <row r="6" spans="1:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="19" t="s">
         <v>60</v>
       </c>
@@ -2805,7 +2799,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="19" t="s">
         <v>61</v>
       </c>
@@ -2828,7 +2822,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" s="19" t="s">
         <v>62</v>
       </c>
@@ -2851,7 +2845,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="19" t="s">
         <v>63</v>
       </c>
@@ -2874,7 +2868,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="19" t="s">
         <v>64</v>
       </c>
@@ -2899,7 +2893,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" s="19" t="s">
         <v>65</v>
       </c>
@@ -2922,7 +2916,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" s="19" t="s">
         <v>68</v>
       </c>
@@ -2932,14 +2926,14 @@
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
     </row>
-    <row r="13" spans="1:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
     </row>
-    <row r="14" spans="1:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A14" s="23" t="s">
         <v>58</v>
       </c>
@@ -2967,7 +2961,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="23"/>
       <c r="B15" s="6">
         <f>ABS(B14*B1)</f>
@@ -2993,7 +2987,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A16" s="21" t="s">
         <v>66</v>
       </c>
@@ -3017,7 +3011,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" s="21"/>
       <c r="B17" s="19">
         <f>$C$1*B16</f>
@@ -3039,7 +3033,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A18" s="21" t="s">
         <v>67</v>
       </c>
@@ -3048,7 +3042,7 @@
         <v>385.01</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19" s="21"/>
       <c r="C19" s="19">
         <f>C18*D1</f>
@@ -3075,16 +3069,16 @@
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.5703125" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.59765625" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="9.5703125" style="1"/>
-    <col min="2" max="2" width="9.5703125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="9.5703125" style="1"/>
-    <col min="4" max="4" width="9.5703125" style="3" customWidth="1"/>
-    <col min="5" max="16384" width="9.5703125" style="1"/>
+    <col min="1" max="1" width="9.59765625" style="1"/>
+    <col min="2" max="2" width="9.59765625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="9.59765625" style="1"/>
+    <col min="4" max="4" width="9.59765625" style="3" customWidth="1"/>
+    <col min="5" max="16384" width="9.59765625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
@@ -3102,7 +3096,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>46</v>
       </c>
@@ -3121,7 +3115,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>48</v>
       </c>
@@ -3140,7 +3134,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>49</v>
       </c>
@@ -3158,7 +3152,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
         <v>50</v>
       </c>
@@ -3177,7 +3171,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
         <v>41</v>
       </c>
@@ -3195,7 +3189,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
         <v>51</v>
       </c>

--- a/DOCS/Ranges.xlsx
+++ b/DOCS/Ranges.xlsx
@@ -1,21 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{71975EA2-6126-42D9-8817-1D020A963479}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="10_ncr:100000_{71975EA2-6126-42D9-8817-1D020A963479}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{327E0ED6-1802-4F47-82D1-F45A5C7AF07C}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ranges" sheetId="1" r:id="rId1"/>
     <sheet name="Power" sheetId="3" r:id="rId2"/>
     <sheet name="SPI timings" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -794,7 +800,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -848,9 +854,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1148,36 +1151,36 @@
   <dimension ref="A1:W46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.73046875" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9.7109375" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.73046875" style="1"/>
-    <col min="2" max="2" width="9.73046875" style="3"/>
-    <col min="3" max="7" width="9.73046875" style="1"/>
+    <col min="1" max="1" width="9.7109375" style="1"/>
+    <col min="2" max="2" width="9.7109375" style="3"/>
+    <col min="3" max="7" width="9.7109375" style="1"/>
     <col min="8" max="8" width="12" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="13" width="9.73046875" style="1"/>
-    <col min="14" max="14" width="9.73046875" style="6"/>
-    <col min="15" max="17" width="9.73046875" style="1"/>
-    <col min="18" max="18" width="9.73046875" style="6"/>
-    <col min="19" max="16384" width="9.73046875" style="1"/>
+    <col min="9" max="13" width="9.7109375" style="1"/>
+    <col min="14" max="14" width="9.7109375" style="6"/>
+    <col min="15" max="17" width="9.7109375" style="1"/>
+    <col min="18" max="18" width="9.7109375" style="6"/>
+    <col min="19" max="16384" width="9.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="22" t="s">
+    <row r="1" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
       <c r="R1" s="6" t="s">
         <v>2</v>
       </c>
@@ -1185,18 +1188,18 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="22"/>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
+    <row r="2" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="21"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
       <c r="R2" s="6">
         <f>49.4/S2+1</f>
         <v>50.4</v>
@@ -1205,20 +1208,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B3" s="3">
-        <f>0.01/3</f>
-        <v>3.3333333333333335E-3</v>
+        <f>0.003/2</f>
+        <v>1.5E-3</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D3" s="3">
         <f>B3*1000</f>
-        <v>3.3333333333333335</v>
+        <v>1.5</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>10</v>
@@ -1232,12 +1235,12 @@
       <c r="I3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="L3" s="21" t="s">
+      <c r="L3" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="M3" s="21"/>
-      <c r="N3" s="21"/>
-      <c r="O3" s="21"/>
+      <c r="M3" s="20"/>
+      <c r="N3" s="20"/>
+      <c r="O3" s="20"/>
       <c r="R3" s="6">
         <f t="shared" ref="R3:R46" si="0">49.4/S3+1</f>
         <v>49.431372549019606</v>
@@ -1246,13 +1249,13 @@
         <v>1.02</v>
       </c>
     </row>
-    <row r="4" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>31</v>
       </c>
       <c r="B4" s="10">
         <f>0.1/B3</f>
-        <v>30</v>
+        <v>66.666666666666671</v>
       </c>
       <c r="C4" s="9" t="s">
         <v>0</v>
@@ -1270,10 +1273,10 @@
       </c>
       <c r="J4" s="11"/>
       <c r="K4" s="11"/>
-      <c r="L4" s="21"/>
-      <c r="M4" s="21"/>
-      <c r="N4" s="21"/>
-      <c r="O4" s="21"/>
+      <c r="L4" s="20"/>
+      <c r="M4" s="20"/>
+      <c r="N4" s="20"/>
+      <c r="O4" s="20"/>
       <c r="R4" s="6">
         <f t="shared" si="0"/>
         <v>48.047619047619044</v>
@@ -1284,12 +1287,12 @@
       <c r="V4" s="1">
         <v>3.1</v>
       </c>
-      <c r="W4" s="20">
+      <c r="W4" s="19">
         <f>2^16*U5/V4</f>
         <v>50688.384096024005</v>
       </c>
     </row>
-    <row r="5" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -1351,7 +1354,7 @@
         <v>2.3976744186046512</v>
       </c>
     </row>
-    <row r="6" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
         <v>5</v>
       </c>
@@ -1403,7 +1406,7 @@
         <v>1.1100000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>2</v>
       </c>
@@ -1453,7 +1456,7 @@
         <v>1.1299999999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>32</v>
       </c>
@@ -1510,20 +1513,20 @@
         <v>1.1499999999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B9" s="3">
         <f>B8*B3</f>
-        <v>1.6666666666666669E-4</v>
+        <v>7.5000000000000007E-5</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
         <f>B9*1000000</f>
-        <v>166.66666666666669</v>
+        <v>75</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>9</v>
@@ -1534,28 +1537,28 @@
       </c>
       <c r="H9" s="3">
         <f>H7/B3</f>
-        <v>5.7275958944592615E-4</v>
+        <v>1.2727990876576136E-3</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>0</v>
       </c>
       <c r="J9" s="3">
         <f>H9*1000</f>
-        <v>0.5727595894459262</v>
+        <v>1.2727990876576136</v>
       </c>
       <c r="K9" s="1" t="s">
         <v>13</v>
       </c>
       <c r="L9" s="3">
         <f>L7/B3</f>
-        <v>3.5797474340370384E-5</v>
+        <v>7.9549942978600851E-5</v>
       </c>
       <c r="M9" s="6" t="s">
         <v>0</v>
       </c>
       <c r="N9" s="3">
         <f>L9*1000000</f>
-        <v>35.797474340370385</v>
+        <v>79.549942978600853</v>
       </c>
       <c r="O9" s="4" t="s">
         <v>20</v>
@@ -1568,34 +1571,34 @@
         <v>1.18</v>
       </c>
     </row>
-    <row r="10" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G10" s="9" t="s">
         <v>33</v>
       </c>
       <c r="H10" s="10">
         <f>H8/B3</f>
-        <v>2.2910383577837046E-3</v>
+        <v>5.0911963506304544E-3</v>
       </c>
       <c r="I10" s="9" t="s">
         <v>0</v>
       </c>
       <c r="J10" s="10">
         <f>H10*1000</f>
-        <v>2.2910383577837048</v>
+        <v>5.0911963506304545</v>
       </c>
       <c r="K10" s="9" t="s">
         <v>13</v>
       </c>
       <c r="L10" s="10">
         <f>L8/B3</f>
-        <v>1.4318989736148154E-4</v>
+        <v>3.181997719144034E-4</v>
       </c>
       <c r="M10" s="17" t="s">
         <v>0</v>
       </c>
       <c r="N10" s="10">
         <f>L10*1000000</f>
-        <v>143.18989736148154</v>
+        <v>318.19977191440341</v>
       </c>
       <c r="O10" s="9" t="s">
         <v>34</v>
@@ -1608,7 +1611,7 @@
         <v>1.21</v>
       </c>
     </row>
-    <row r="11" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J11" s="3"/>
       <c r="M11" s="5"/>
       <c r="R11" s="6">
@@ -1619,20 +1622,20 @@
         <v>1.24</v>
       </c>
     </row>
-    <row r="12" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="22" t="s">
+    <row r="12" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="22"/>
-      <c r="C12" s="22"/>
-      <c r="D12" s="22"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="22"/>
-      <c r="G12" s="22"/>
-      <c r="H12" s="22"/>
-      <c r="I12" s="22"/>
-      <c r="J12" s="22"/>
-      <c r="K12" s="22"/>
+      <c r="B12" s="21"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="21"/>
+      <c r="K12" s="21"/>
       <c r="M12" s="5"/>
       <c r="R12" s="6">
         <f t="shared" si="0"/>
@@ -1642,18 +1645,18 @@
         <v>1.27</v>
       </c>
     </row>
-    <row r="13" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="22"/>
-      <c r="B13" s="22"/>
-      <c r="C13" s="22"/>
-      <c r="D13" s="22"/>
-      <c r="E13" s="22"/>
-      <c r="F13" s="22"/>
-      <c r="G13" s="22"/>
-      <c r="H13" s="22"/>
-      <c r="I13" s="22"/>
-      <c r="J13" s="22"/>
-      <c r="K13" s="22"/>
+    <row r="13" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="21"/>
+      <c r="B13" s="21"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="21"/>
+      <c r="K13" s="21"/>
       <c r="M13" s="5"/>
       <c r="R13" s="6">
         <f t="shared" si="0"/>
@@ -1663,7 +1666,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="14" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>19</v>
       </c>
@@ -1683,12 +1686,12 @@
       <c r="I14" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="L14" s="21" t="s">
+      <c r="L14" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="M14" s="21"/>
-      <c r="N14" s="21"/>
-      <c r="O14" s="21"/>
+      <c r="M14" s="20"/>
+      <c r="N14" s="20"/>
+      <c r="O14" s="20"/>
       <c r="R14" s="6">
         <f t="shared" si="0"/>
         <v>38.142857142857139</v>
@@ -1697,7 +1700,7 @@
         <v>1.33</v>
       </c>
     </row>
-    <row r="15" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
         <v>31</v>
       </c>
@@ -1726,10 +1729,10 @@
       </c>
       <c r="J15" s="11"/>
       <c r="K15" s="11"/>
-      <c r="L15" s="21"/>
-      <c r="M15" s="21"/>
-      <c r="N15" s="21"/>
-      <c r="O15" s="21"/>
+      <c r="L15" s="20"/>
+      <c r="M15" s="20"/>
+      <c r="N15" s="20"/>
+      <c r="O15" s="20"/>
       <c r="R15" s="6">
         <f t="shared" si="0"/>
         <v>37.058394160583937</v>
@@ -1738,7 +1741,7 @@
         <v>1.37</v>
       </c>
     </row>
-    <row r="16" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>3</v>
       </c>
@@ -1795,7 +1798,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="17" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
         <v>5</v>
       </c>
@@ -1847,7 +1850,7 @@
         <v>1.43</v>
       </c>
     </row>
-    <row r="18" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>2</v>
       </c>
@@ -1897,7 +1900,7 @@
         <v>1.47</v>
       </c>
     </row>
-    <row r="19" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
         <v>32</v>
       </c>
@@ -1953,7 +1956,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="20" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>21</v>
       </c>
@@ -2010,7 +2013,7 @@
         <v>1.54</v>
       </c>
     </row>
-    <row r="21" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="1"/>
       <c r="G21" s="9" t="s">
         <v>33</v>
@@ -2051,7 +2054,7 @@
         <v>1.58</v>
       </c>
     </row>
-    <row r="22" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="1"/>
       <c r="J22" s="3"/>
       <c r="K22" s="4"/>
@@ -2064,20 +2067,20 @@
         <v>1.62</v>
       </c>
     </row>
-    <row r="23" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A23" s="22" t="s">
+    <row r="23" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="B23" s="22"/>
-      <c r="C23" s="22"/>
-      <c r="D23" s="22"/>
-      <c r="E23" s="22"/>
-      <c r="F23" s="22"/>
-      <c r="G23" s="22"/>
-      <c r="H23" s="22"/>
-      <c r="I23" s="22"/>
-      <c r="J23" s="22"/>
-      <c r="K23" s="22"/>
+      <c r="B23" s="21"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="21"/>
+      <c r="G23" s="21"/>
+      <c r="H23" s="21"/>
+      <c r="I23" s="21"/>
+      <c r="J23" s="21"/>
+      <c r="K23" s="21"/>
       <c r="M23" s="5"/>
       <c r="R23" s="6">
         <f t="shared" si="0"/>
@@ -2087,18 +2090,18 @@
         <v>1.65</v>
       </c>
     </row>
-    <row r="24" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A24" s="22"/>
-      <c r="B24" s="22"/>
-      <c r="C24" s="22"/>
-      <c r="D24" s="22"/>
-      <c r="E24" s="22"/>
-      <c r="F24" s="22"/>
-      <c r="G24" s="22"/>
-      <c r="H24" s="22"/>
-      <c r="I24" s="22"/>
-      <c r="J24" s="22"/>
-      <c r="K24" s="22"/>
+    <row r="24" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="21"/>
+      <c r="B24" s="21"/>
+      <c r="C24" s="21"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="21"/>
+      <c r="G24" s="21"/>
+      <c r="H24" s="21"/>
+      <c r="I24" s="21"/>
+      <c r="J24" s="21"/>
+      <c r="K24" s="21"/>
       <c r="M24" s="5"/>
       <c r="R24" s="6">
         <f t="shared" si="0"/>
@@ -2108,7 +2111,7 @@
         <v>1.69</v>
       </c>
     </row>
-    <row r="25" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>22</v>
       </c>
@@ -2135,12 +2138,12 @@
       <c r="I25" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="L25" s="21" t="s">
+      <c r="L25" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="M25" s="21"/>
-      <c r="N25" s="21"/>
-      <c r="O25" s="21"/>
+      <c r="M25" s="20"/>
+      <c r="N25" s="20"/>
+      <c r="O25" s="20"/>
       <c r="R25" s="6">
         <f t="shared" si="0"/>
         <v>29.390804597701148</v>
@@ -2149,7 +2152,7 @@
         <v>1.74</v>
       </c>
     </row>
-    <row r="26" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="11" t="s">
         <v>23</v>
       </c>
@@ -2178,10 +2181,10 @@
       </c>
       <c r="J26" s="11"/>
       <c r="K26" s="11"/>
-      <c r="L26" s="21"/>
-      <c r="M26" s="21"/>
-      <c r="N26" s="21"/>
-      <c r="O26" s="21"/>
+      <c r="L26" s="20"/>
+      <c r="M26" s="20"/>
+      <c r="N26" s="20"/>
+      <c r="O26" s="20"/>
       <c r="R26" s="6">
         <f t="shared" si="0"/>
         <v>28.752808988764045</v>
@@ -2190,7 +2193,7 @@
         <v>1.78</v>
       </c>
     </row>
-    <row r="27" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
         <v>35</v>
       </c>
@@ -2241,7 +2244,7 @@
         <v>1.82</v>
       </c>
     </row>
-    <row r="28" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="11" t="s">
         <v>3</v>
       </c>
@@ -2299,7 +2302,7 @@
         <v>1.87</v>
       </c>
     </row>
-    <row r="29" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>5</v>
       </c>
@@ -2349,7 +2352,7 @@
         <v>1.91</v>
       </c>
     </row>
-    <row r="30" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="11" t="s">
         <v>2</v>
       </c>
@@ -2401,7 +2404,7 @@
         <v>1.96</v>
       </c>
     </row>
-    <row r="31" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
         <v>36</v>
       </c>
@@ -2452,7 +2455,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="11" t="s">
         <v>21</v>
       </c>
@@ -2510,7 +2513,7 @@
         <v>2.0499999999999998</v>
       </c>
     </row>
-    <row r="33" spans="18:19" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="18:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="R33" s="6">
         <f t="shared" si="0"/>
         <v>24.523809523809522</v>
@@ -2519,7 +2522,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="34" spans="18:19" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="18:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="R34" s="6">
         <f t="shared" si="0"/>
         <v>23.976744186046513</v>
@@ -2528,7 +2531,7 @@
         <v>2.15</v>
       </c>
     </row>
-    <row r="35" spans="18:19" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="35" spans="18:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="R35" s="6">
         <f t="shared" si="0"/>
         <v>22.858407079646017</v>
@@ -2537,7 +2540,7 @@
         <v>2.2599999999999998</v>
       </c>
     </row>
-    <row r="36" spans="18:19" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="18:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="R36" s="6">
         <f t="shared" si="0"/>
         <v>21.843881856540083</v>
@@ -2546,7 +2549,7 @@
         <v>2.37</v>
       </c>
     </row>
-    <row r="37" spans="18:19" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="37" spans="18:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="R37" s="6">
         <f t="shared" si="0"/>
         <v>20.839357429718874</v>
@@ -2555,7 +2558,7 @@
         <v>2.4900000000000002</v>
       </c>
     </row>
-    <row r="38" spans="18:19" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="38" spans="18:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="R38" s="6">
         <f t="shared" si="0"/>
         <v>19.927203065134101</v>
@@ -2564,7 +2567,7 @@
         <v>2.61</v>
       </c>
     </row>
-    <row r="39" spans="18:19" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="39" spans="18:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="R39" s="6">
         <f t="shared" si="0"/>
         <v>19.029197080291969</v>
@@ -2573,7 +2576,7 @@
         <v>2.74</v>
       </c>
     </row>
-    <row r="40" spans="18:19" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="40" spans="18:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="R40" s="6">
         <f t="shared" si="0"/>
         <v>18.642857142857142</v>
@@ -2582,7 +2585,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="41" spans="18:19" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="41" spans="18:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="R41" s="6">
         <f t="shared" si="0"/>
         <v>18.212543554006967</v>
@@ -2591,7 +2594,7 @@
         <v>2.87</v>
       </c>
     </row>
-    <row r="42" spans="18:19" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="42" spans="18:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="R42" s="6">
         <f t="shared" si="0"/>
         <v>17.802721088435373</v>
@@ -2600,7 +2603,7 @@
         <v>2.94</v>
       </c>
     </row>
-    <row r="43" spans="18:19" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="43" spans="18:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="R43" s="6">
         <f t="shared" si="0"/>
         <v>17.411960132890368</v>
@@ -2609,7 +2612,7 @@
         <v>3.01</v>
       </c>
     </row>
-    <row r="44" spans="18:19" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="44" spans="18:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="R44" s="6">
         <f t="shared" si="0"/>
         <v>16.98705501618123</v>
@@ -2618,7 +2621,7 @@
         <v>3.09</v>
       </c>
     </row>
-    <row r="45" spans="18:19" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="45" spans="18:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="R45" s="6">
         <f t="shared" si="0"/>
         <v>16.632911392405063</v>
@@ -2627,7 +2630,7 @@
         <v>3.16</v>
       </c>
     </row>
-    <row r="46" spans="18:19" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="46" spans="18:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="R46" s="6">
         <f t="shared" si="0"/>
         <v>16.246913580246911</v>
@@ -2657,31 +2660,31 @@
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.73046875" defaultRowHeight="18.600000000000001" customHeight="1" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.73046875" style="19" customWidth="1"/>
-    <col min="2" max="16384" width="10.73046875" style="19"/>
+    <col min="1" max="1" width="18.7109375" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="10.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B1" s="19">
+    <row r="1" spans="1:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="1">
         <v>3</v>
       </c>
-      <c r="C1" s="19">
+      <c r="C1" s="1">
         <v>5</v>
       </c>
-      <c r="D1" s="19">
+      <c r="D1" s="1">
         <v>12</v>
       </c>
-      <c r="E1" s="19">
+      <c r="E1" s="1">
         <v>15</v>
       </c>
-      <c r="F1" s="19">
+      <c r="F1" s="1">
         <v>-15</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="19" t="s">
+    <row r="2" spans="1:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>53</v>
       </c>
       <c r="B2" s="6">
@@ -2699,12 +2702,12 @@
       <c r="F2" s="6">
         <v>2</v>
       </c>
-      <c r="G2" s="19" t="s">
+      <c r="G2" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="19" t="s">
+    <row r="3" spans="1:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>54</v>
       </c>
       <c r="B3" s="6">
@@ -2722,12 +2725,12 @@
       <c r="F3" s="6">
         <v>2</v>
       </c>
-      <c r="G3" s="19" t="s">
+      <c r="G3" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="19" t="s">
+    <row r="4" spans="1:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>55</v>
       </c>
       <c r="B4" s="6">
@@ -2745,15 +2748,15 @@
       <c r="F4" s="6">
         <v>0</v>
       </c>
-      <c r="G4" s="19" t="s">
+      <c r="G4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="21" t="s">
+      <c r="H4" s="20" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="19" t="s">
+    <row r="5" spans="1:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>56</v>
       </c>
       <c r="B5" s="6">
@@ -2771,13 +2774,13 @@
       <c r="F5" s="6">
         <v>0</v>
       </c>
-      <c r="G5" s="19" t="s">
+      <c r="G5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H5" s="21"/>
-    </row>
-    <row r="6" spans="1:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="19" t="s">
+      <c r="H5" s="20"/>
+    </row>
+    <row r="6" spans="1:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>60</v>
       </c>
       <c r="B6" s="6">
@@ -2795,12 +2798,12 @@
       <c r="F6" s="6">
         <v>0</v>
       </c>
-      <c r="G6" s="19" t="s">
+      <c r="G6" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="19" t="s">
+    <row r="7" spans="1:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>61</v>
       </c>
       <c r="B7" s="6">
@@ -2818,12 +2821,12 @@
       <c r="F7" s="6">
         <v>0</v>
       </c>
-      <c r="G7" s="19" t="s">
+      <c r="G7" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="19" t="s">
+    <row r="8" spans="1:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>62</v>
       </c>
       <c r="B8" s="6">
@@ -2841,12 +2844,12 @@
       <c r="F8" s="6">
         <v>0</v>
       </c>
-      <c r="G8" s="19" t="s">
+      <c r="G8" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="19" t="s">
+    <row r="9" spans="1:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>63</v>
       </c>
       <c r="B9" s="6">
@@ -2864,12 +2867,12 @@
       <c r="F9" s="6">
         <v>0</v>
       </c>
-      <c r="G9" s="19" t="s">
+      <c r="G9" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="19" t="s">
+    <row r="10" spans="1:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
         <v>64</v>
       </c>
       <c r="B10" s="6">
@@ -2889,12 +2892,12 @@
       <c r="F10" s="6">
         <v>0</v>
       </c>
-      <c r="G10" s="19" t="s">
+      <c r="G10" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="19" t="s">
+    <row r="11" spans="1:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>65</v>
       </c>
       <c r="B11" s="6">
@@ -2912,12 +2915,12 @@
       <c r="F11" s="6">
         <v>0</v>
       </c>
-      <c r="G11" s="19" t="s">
+      <c r="G11" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="19" t="s">
+    <row r="12" spans="1:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
         <v>68</v>
       </c>
       <c r="B12" s="6"/>
@@ -2926,15 +2929,15 @@
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
     </row>
-    <row r="13" spans="1:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
     </row>
-    <row r="14" spans="1:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="23" t="s">
+    <row r="14" spans="1:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="22" t="s">
         <v>58</v>
       </c>
       <c r="B14" s="6">
@@ -2957,12 +2960,12 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="G14" s="19" t="s">
+      <c r="G14" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="23"/>
+    <row r="15" spans="1:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="22"/>
       <c r="B15" s="6">
         <f>ABS(B14*B1)</f>
         <v>89.13</v>
@@ -2983,12 +2986,12 @@
         <f t="shared" si="1"/>
         <v>60</v>
       </c>
-      <c r="G15" s="19" t="s">
+      <c r="G15" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="21" t="s">
+    <row r="16" spans="1:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="20" t="s">
         <v>66</v>
       </c>
       <c r="B16" s="6">
@@ -2999,21 +3002,21 @@
         <f>SUM(B16,E16,F16,C14)</f>
         <v>385.01</v>
       </c>
-      <c r="E16" s="19">
+      <c r="E16" s="1">
         <f>E15/0.75/5</f>
         <v>64</v>
       </c>
-      <c r="F16" s="19">
+      <c r="F16" s="1">
         <f>F15/0.6/5</f>
         <v>20</v>
       </c>
-      <c r="G16" s="19" t="s">
+      <c r="G16" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="21"/>
-      <c r="B17" s="19">
+    <row r="17" spans="1:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="20"/>
+      <c r="B17" s="1">
         <f>$C$1*B16</f>
         <v>148.55000000000001</v>
       </c>
@@ -3021,20 +3024,20 @@
         <f>SUM(B17,C15,E17,F17)</f>
         <v>1925.05</v>
       </c>
-      <c r="E17" s="19">
+      <c r="E17" s="1">
         <f t="shared" ref="E17:F17" si="2">$C$1*E16</f>
         <v>320</v>
       </c>
-      <c r="F17" s="19">
+      <c r="F17" s="1">
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
-      <c r="G17" s="19" t="s">
+      <c r="G17" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="21" t="s">
+    <row r="18" spans="1:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="20" t="s">
         <v>67</v>
       </c>
       <c r="C18" s="6">
@@ -3042,9 +3045,9 @@
         <v>385.01</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A19" s="21"/>
-      <c r="C19" s="19">
+    <row r="19" spans="1:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="20"/>
+      <c r="C19" s="1">
         <f>C18*D1</f>
         <v>4620.12</v>
       </c>
@@ -3069,16 +3072,16 @@
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.59765625" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9.5703125" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.59765625" style="1"/>
-    <col min="2" max="2" width="9.59765625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="9.59765625" style="1"/>
-    <col min="4" max="4" width="9.59765625" style="3" customWidth="1"/>
-    <col min="5" max="16384" width="9.59765625" style="1"/>
+    <col min="1" max="1" width="9.5703125" style="1"/>
+    <col min="2" max="2" width="9.5703125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="9.5703125" style="1"/>
+    <col min="4" max="4" width="9.5703125" style="3" customWidth="1"/>
+    <col min="5" max="16384" width="9.5703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
@@ -3096,7 +3099,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>46</v>
       </c>
@@ -3115,7 +3118,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>48</v>
       </c>
@@ -3134,7 +3137,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>49</v>
       </c>
@@ -3152,7 +3155,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>50</v>
       </c>
@@ -3171,7 +3174,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>41</v>
       </c>
@@ -3189,7 +3192,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>51</v>
       </c>
